--- a/sonuclarrr.xlsx
+++ b/sonuclarrr.xlsx
@@ -477,25 +477,25 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -503,25 +503,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -529,22 +529,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -555,25 +555,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -581,25 +581,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -619,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -633,25 +633,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -668,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -701,76 +701,76 @@
         <v>1</v>
       </c>
       <c r="B1" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>52</v>
@@ -778,119 +778,119 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>52</v>
       </c>
       <c r="F5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>32</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F6">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>27</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>49</v>
@@ -898,42 +898,42 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -941,16 +941,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
@@ -958,102 +958,102 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>28</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F18">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1061,119 +1061,119 @@
         <v>1</v>
       </c>
       <c r="B19" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>23</v>
       </c>
       <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
         <v>32</v>
-      </c>
-      <c r="F20">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>45</v>
       </c>
       <c r="F22">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F24">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1191,79 +1191,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>49</v>
@@ -1271,42 +1271,42 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1333,90 +1333,90 @@
         <v>6</v>
       </c>
       <c r="D1" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>54</v>
@@ -1424,22 +1424,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1457,99 +1457,99 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
       <c r="C3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
       <c r="C4">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
       <c r="C5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>56</v>
@@ -1557,22 +1557,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
         <v>39</v>
       </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
       <c r="D6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1596,116 +1596,116 @@
         <v>2</v>
       </c>
       <c r="C1" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5">
         <v>6</v>
       </c>
       <c r="E1" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1715,13 +1715,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1743,276 +1743,276 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2020,45 +2020,45 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
